--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -1,156 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6118B570-9522-45B5-BE19-B72460DBB7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Factors are ***** you multiply together to get another integer</t>
-  </si>
-  <si>
-    <t>integers</t>
-  </si>
-  <si>
-    <t>Factors are integers you ***** together to get another integer</t>
-  </si>
-  <si>
-    <t>multiply</t>
-  </si>
-  <si>
-    <t>Generate #7 Factors</t>
-  </si>
-  <si>
-    <t>itself</t>
-  </si>
-  <si>
-    <t>Every number greater than 1 has at least 2 factors (1 and i*****)</t>
-  </si>
-  <si>
-    <t>An integer is divisible by 2 if ends in an ***** digit</t>
-  </si>
-  <si>
-    <t>An integer is divisible by 3 if the sum of its digits is divisible by *****</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>An integer is divisible by 5 if it ends in ***** or *****</t>
-  </si>
-  <si>
-    <t>0 or 5</t>
-  </si>
-  <si>
-    <t>An integer is divisible by 9 if the sum of its digits is divisible by *****</t>
-  </si>
-  <si>
-    <t>An integer is divisible by 10 if it ends in *****</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Prime Number is number that has only 2 factors (***** and i*****)</t>
-  </si>
-  <si>
-    <t>1 and itself</t>
-  </si>
-  <si>
-    <t>1 is Prime Number</t>
-  </si>
-  <si>
-    <t>2 is Prime Number</t>
-  </si>
-  <si>
-    <t>3 is Prime Number</t>
-  </si>
-  <si>
-    <t>4 is Prime Number</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2 is the only ***** prime number</t>
-  </si>
-  <si>
-    <t>Generate #8 Common Factors</t>
-  </si>
-  <si>
-    <t>Generate #9 Greatest Common Factors</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -267,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -583,242 +459,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
+        <v>887</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Factors are ***** you multiply together to get another integer</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>integers</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" t="n">
+        <v>888</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Factors are integers you ***** together to get another integer</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>multiply</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" t="n">
+        <v>889</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Generate #7 Factors</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
+        <v>890</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Every number greater than 1 has at least 2 factors (1 and i*****)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>itself</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
+      <c r="A6" t="n">
+        <v>891</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>An integer is divisible by 2 if ends in an ***** digit</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
+      <c r="A7" t="n">
+        <v>892</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>An integer is divisible by 3 if the sum of its digits is divisible by *****</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
+      <c r="A8" t="n">
+        <v>893</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>An integer is divisible by 5 if it ends in ***** or *****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>0 or 5</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
+      <c r="A9" t="n">
+        <v>894</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>An integer is divisible by 9 if the sum of its digits is divisible by *****</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>895</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>An integer is divisible by 10 if it ends in *****</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
+      <c r="A11" t="n">
+        <v>896</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Prime Number is number that has only 2 factors (***** and i*****)</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>1 and itself</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>897</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>1 is Prime Number</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>898</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>2 is Prime Number</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>899</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>3 is Prime Number</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>900</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>4 is Prime Number</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>901</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>2 is the only ***** prime number</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>902</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Generate #8 Common Factors</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>903</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Generate #9 Greatest Common Factors</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200718</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -857,6 +1037,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ACA854-64D0-489F-A566-23431EA632A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF61EA-8E35-4FC8-8479-3F2DA9B36D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,6 +97,12 @@
     <t>An integer is divisible by 10 if it ends in *****</t>
   </si>
   <si>
+    <t>Prime Number is number that has only 2 factors (o***** and *****)</t>
+  </si>
+  <si>
+    <t>one and itself</t>
+  </si>
+  <si>
     <t>1 is Prime Number</t>
   </si>
   <si>
@@ -122,12 +128,6 @@
   </si>
   <si>
     <t>Generate #9 Greatest Common Factors</t>
-  </si>
-  <si>
-    <t>one and itself</t>
-  </si>
-  <si>
-    <t>Prime Number is number that has only 2 factors (o***** and *****)</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>890</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>15</v>
@@ -820,10 +820,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -863,13 +863,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -886,13 +886,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -909,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -932,7 +932,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>19</v>
@@ -952,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AF61EA-8E35-4FC8-8479-3F2DA9B36D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E581A1-4239-49FA-AE00-E78D186F2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>Generate #9 Greatest Common Factors</t>
+  </si>
+  <si>
+    <t>Factors(n) = {x for *****, when x,y,n are integers}</t>
+  </si>
+  <si>
+    <t>x*y=n</t>
+  </si>
+  <si>
+    <t>Factors(n) = {***** for x*y=n, when x,y,n are integers}</t>
+  </si>
+  <si>
+    <t>Factors(n) = {x for x*y=n, when x,y,n are *****}</t>
+  </si>
+  <si>
+    <t>Common_Factors(a,b) = Factors(a) uinon Factors(b)</t>
   </si>
 </sst>
 </file>
@@ -587,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -973,6 +988,44 @@
       </c>
       <c r="G18" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E581A1-4239-49FA-AE00-E78D186F2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F68752-B236-4AC8-82D0-BBA8764CB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -130,19 +130,34 @@
     <t>Generate #9 Greatest Common Factors</t>
   </si>
   <si>
-    <t>Factors(n) = {x for *****, when x,y,n are integers}</t>
-  </si>
-  <si>
     <t>x*y=n</t>
   </si>
   <si>
-    <t>Factors(n) = {***** for x*y=n, when x,y,n are integers}</t>
-  </si>
-  <si>
-    <t>Factors(n) = {x for x*y=n, when x,y,n are *****}</t>
-  </si>
-  <si>
-    <t>Common_Factors(a,b) = Factors(a) uinon Factors(b)</t>
+    <t>200804</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Common_Factors(a,b) = Factors(a).*****(Factors(b))</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>Factors(n) = {x for *****, when x,y,n are integers, x&lt;=sqrt(n) and y&gt;=sqrt(n)}</t>
+  </si>
+  <si>
+    <t>Factors(n) = {***** for x*y=n, when x,y,n are integers, x&lt;=sqrt(n) and y&gt;=sqrt(n)}</t>
+  </si>
+  <si>
+    <t>Factors(n) = {x for x*y=n, when x,y,n are *****, x&lt;=sqrt(n) and y&gt;=sqrt(n)}</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>Factors(n) = {x for x*y=n, when x,y,n are integers, x&lt;=math.*****(n) and y&gt;=math.*****(n)}</t>
   </si>
 </sst>
 </file>
@@ -284,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +335,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,42 +1008,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>967</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>968</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>969</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>970</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -467,11 +467,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1169,7 +1169,697 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>973</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Min(Factors(n)) = *****</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>974</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Max(Factors(n)) = *****</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>975</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Min(Factors(n)), Max(Factors(n)) = *****, *****</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>1, n</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>976</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Abbreviate of GCF</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>greatest common factor</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>977</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Min(Common_Factors(a,b)) = *****</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>978</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Max(Common_Factors(a,b)) = *****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>min(a,b)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>979</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) &lt;= *****</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>min(a,b)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>980</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) ***** Min(a,b)</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>&lt;=</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>981</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) &gt;= *****</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>982</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>***** &lt;= GCF(a,b) &lt;= Min(a,b)</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>983</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>1 &lt;= GCF(a,b) &lt;= *****</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>min(a,b)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="27.6" customHeight="1">
+      <c r="A36" t="n">
+        <v>984</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) = The biggest square dimension that a r***** of a*b can be divided into</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>rectangle</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="27.6" customHeight="1">
+      <c r="A37" t="n">
+        <v>985</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) = The biggest square dimension that a rectangle of ***** can be divided into</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>a*b</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="27.6" customHeight="1">
+      <c r="A38" t="n">
+        <v>986</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b) = The biggest square dimension that a rectangle of a*b can be divided *****</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>987</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>***** =&gt; a and b are coprime numbers</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b)=1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>988</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>GCF(a,b)=1 =&gt; a and b are ***** numbers</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>coprime</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="27.6" customHeight="1">
+      <c r="A41" t="n">
+        <v>989</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>a and b are prime numbers =&gt; GCF(a,b)=*****</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>990</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Factors(GCF(*****)) = Common_Factors(a,b)</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>a,b</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>991</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Factors(GCF(a,b)) = Common_Factors(*****)</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>a,b</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="27.6" customHeight="1">
+      <c r="A44" t="n">
+        <v>992</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****,b)</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>b-a</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="27.6" customHeight="1">
+      <c r="A45" t="n">
+        <v>993</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>def *****(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, a % b\n\treturn a</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>gcf</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="27.6" customHeight="1">
+      <c r="A46" t="n">
+        <v>994</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>def gcf(a,b):\n\twhile *****:\n\t\ta, b = b, a % b\n\treturn a</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>b&gt;0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="27.6" customHeight="1">
+      <c r="A47" t="n">
+        <v>995</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>def gcf(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, *****\n\treturn a</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>a%b</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="27.6" customHeight="1">
+      <c r="A48" t="n">
+        <v>996</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>def gcf(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, a % b\n\treturn *****</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>997</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>Built-In GCF Function: math.*****(a,b)</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>gcd</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07DE47-5D60-46E7-93D9-4F07B52B5EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFA6C1-B038-4A1E-91CB-CDE7C24E96B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,6 +163,9 @@
     <t>intersection</t>
   </si>
   <si>
+    <t>gcf(a,b) = *****(Common_Factors(a,b))</t>
+  </si>
+  <si>
     <t>max</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>1, n</t>
   </si>
   <si>
+    <t>Abbreviate of gcf</t>
+  </si>
+  <si>
     <t>greatest common factor</t>
   </si>
   <si>
@@ -196,15 +202,39 @@
     <t>min(a,b)</t>
   </si>
   <si>
+    <t>gcf(a,b) &lt;= *****</t>
+  </si>
+  <si>
+    <t>gcf(a,b) ***** Min(a,b)</t>
+  </si>
+  <si>
     <t>&lt;=</t>
   </si>
   <si>
+    <t>gcf(a,b) &gt;= *****</t>
+  </si>
+  <si>
+    <t>gcf(a,b) is between ***** and min(a,b)</t>
+  </si>
+  <si>
+    <t>gcf(a,b) is between 1 and *****</t>
+  </si>
+  <si>
+    <t>gcf(a,b) = The biggest square dimension that a r***** of a*b can be divided into</t>
+  </si>
+  <si>
     <t>rectangle</t>
   </si>
   <si>
+    <t>gcf(a,b) = The biggest square dimension that a rectangle of ***** can be divided into</t>
+  </si>
+  <si>
     <t>a*b</t>
   </si>
   <si>
+    <t>gcf(a,b) = The biggest square dimension that a rectangle of a*b can be divided *****</t>
+  </si>
+  <si>
     <t>into</t>
   </si>
   <si>
@@ -214,13 +244,22 @@
     <t>gcf(a,b)=1</t>
   </si>
   <si>
+    <t>gcf(a,b)=1 =&gt; a and b are ***** numbers</t>
+  </si>
+  <si>
     <t>coprime</t>
   </si>
   <si>
+    <t>a and b are prime numbers =&gt; gcf(a,b)=*****</t>
+  </si>
+  <si>
+    <t>Factors(gcf(*****)) = Common_Factors(a,b)</t>
+  </si>
+  <si>
     <t>a,b</t>
   </si>
   <si>
-    <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****,b)</t>
+    <t>Factors(gcf(a,b)) = Common_Factors(*****)</t>
   </si>
   <si>
     <t>b-a</t>
@@ -250,52 +289,13 @@
     <t>a</t>
   </si>
   <si>
+    <t>Built-In gcf Function: math.*****(a,b)</t>
+  </si>
+  <si>
     <t>gcd</t>
   </si>
   <si>
-    <t>gcf(a,b) is between 1 and *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b) is between ***** and min(a,b)</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = *****(Common_Factors(a,b))</t>
-  </si>
-  <si>
-    <t>Abbreviate of gcf</t>
-  </si>
-  <si>
-    <t>gcf(a,b) &lt;= *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b) ***** Min(a,b)</t>
-  </si>
-  <si>
-    <t>gcf(a,b) &gt;= *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = The biggest square dimension that a r***** of a*b can be divided into</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = The biggest square dimension that a rectangle of ***** can be divided into</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = The biggest square dimension that a rectangle of a*b can be divided *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b)=1 =&gt; a and b are ***** numbers</t>
-  </si>
-  <si>
-    <t>a and b are prime numbers =&gt; gcf(a,b)=*****</t>
-  </si>
-  <si>
-    <t>Factors(gcf(*****)) = Common_Factors(a,b)</t>
-  </si>
-  <si>
-    <t>Factors(gcf(a,b)) = Common_Factors(*****)</t>
-  </si>
-  <si>
-    <t>Built-In gcf Function: math.*****(a,b)</t>
+    <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****-*****,b)</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1257,10 +1257,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -1277,13 +1277,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,13 +1297,13 @@
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1317,13 +1317,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,13 +1357,13 @@
         <v>13</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="5">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,13 +1377,13 @@
         <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,13 +1397,13 @@
         <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,13 +1417,13 @@
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,13 +1437,13 @@
         <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1457,13 +1457,13 @@
         <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1477,13 +1477,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,13 +1497,13 @@
         <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,13 +1517,13 @@
         <v>13</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,13 +1557,13 @@
         <v>13</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,13 +1577,13 @@
         <v>13</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,13 +1617,13 @@
         <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>13</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,13 +1657,13 @@
         <v>13</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,13 +1677,13 @@
         <v>13</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,13 +1697,13 @@
         <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1717,13 +1717,13 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,13 +1757,13 @@
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFA6C1-B038-4A1E-91CB-CDE7C24E96B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D2A355-6080-46B1-B86B-D00BA9B5ABF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>Min(Common_Factors(a,b)) = *****</t>
   </si>
   <si>
-    <t>Max(Common_Factors(a,b)) = *****</t>
-  </si>
-  <si>
     <t>min(a,b)</t>
   </si>
   <si>
@@ -262,30 +259,21 @@
     <t>Factors(gcf(a,b)) = Common_Factors(*****)</t>
   </si>
   <si>
+    <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****-*****,b)</t>
+  </si>
+  <si>
     <t>b-a</t>
   </si>
   <si>
-    <t>def *****(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, a % b\n\treturn a</t>
-  </si>
-  <si>
     <t>gcf</t>
   </si>
   <si>
     <t>def gcf(a,b):\n\twhile *****:\n\t\ta, b = b, a % b\n\treturn a</t>
   </si>
   <si>
-    <t>b&gt;0</t>
-  </si>
-  <si>
-    <t>def gcf(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, *****\n\treturn a</t>
-  </si>
-  <si>
     <t>a%b</t>
   </si>
   <si>
-    <t>def gcf(a,b):\n\twhile b&gt;0:\n\t\ta, b = b, a % b\n\treturn *****</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -295,7 +283,19 @@
     <t>gcd</t>
   </si>
   <si>
-    <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****-*****,b)</t>
+    <t>Max(Common_Factors(a,b)) = m*****(a,b)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, *****\n\treturn a</t>
+  </si>
+  <si>
+    <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn *****</t>
+  </si>
+  <si>
+    <t>def *****(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn a</t>
   </si>
 </sst>
 </file>
@@ -761,8 +761,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1371,16 +1371,16 @@
         <v>978</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
@@ -1397,10 +1397,10 @@
         <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -1417,10 +1417,10 @@
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -1437,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -1477,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
         <v>50</v>
@@ -1497,10 +1497,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>50</v>
@@ -1517,10 +1517,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -1537,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>50</v>
@@ -1557,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -1577,10 +1577,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -1597,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -1617,10 +1617,10 @@
         <v>13</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="s">
         <v>50</v>
@@ -1637,10 +1637,10 @@
         <v>13</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
         <v>50</v>
@@ -1657,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>80</v>
@@ -1677,10 +1677,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -1697,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -1717,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
         <v>50</v>
@@ -1737,10 +1737,10 @@
         <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
         <v>50</v>
@@ -1757,10 +1757,10 @@
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
         <v>50</v>

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
@@ -1927,6 +1859,7 @@
         </is>
       </c>
     </row>
+    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1857,7 +1925,6 @@
         </is>
       </c>
     </row>
-    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -197,74 +197,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -1925,6 +1857,7 @@
         </is>
       </c>
     </row>
+    <row r="50"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Factors.xlsx
+++ b/Questions/Mathematics/Numbers/Factors.xlsx
@@ -197,6 +197,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +603,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Factors are ***** you multiply together to get another integer</t>
+          <t>Factors are ************** you multiply together to get another integer</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -564,7 +632,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Factors are integers you ***** together to get another integer</t>
+          <t>Factors are integers you ************** together to get another integer</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -647,7 +715,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>An integer is divisible by 2 if ends in an ***** digit</t>
+          <t>An integer is divisible by 2 if ends in an **** digit</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -675,7 +743,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>An integer is divisible by 3 if the sum of its digits is divisible by *****</t>
+          <t>An integer is divisible by 3 if the sum of its digits is divisible by *</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
@@ -701,7 +769,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>An integer is divisible by 5 if it ends in ***** or 5</t>
+          <t>An integer is divisible by 5 if it ends in * or 5</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
@@ -727,7 +795,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>An integer is divisible by 9 if the sum of its digits is divisible by *****</t>
+          <t>An integer is divisible by 9 if the sum of its digits is divisible by *</t>
         </is>
       </c>
       <c r="E9" s="5" t="n">
@@ -753,7 +821,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>An integer is divisible by 10 if it ends in *****</t>
+          <t>An integer is divisible by 10 if it ends in *</t>
         </is>
       </c>
       <c r="E10" s="5" t="n">
@@ -779,7 +847,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Prime Number is number that has only 2 factors (one and *****)</t>
+          <t>Prime Number is number that has only 2 factors (one and ******)</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -939,7 +1007,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>2 is the only ***** prime number</t>
+          <t>2 is the only **** prime number</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1041,7 +1109,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Factors(n) = {***** for x*y=n, when x,y,n are integers}</t>
+          <t>Factors(n) = { for x*y=n, when x,y,n are integers}</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1069,7 +1137,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Factors(n) = {x for x*y=n, when x,y,n are *****}</t>
+          <t>Factors(n) = {x for x*y=n, when x,y,n are ********}</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1097,7 +1165,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>x*y=n, when x,y,n are positive integers =&gt; x&lt;=math.***** and y&gt;=math.*****</t>
+          <t>x*y=n, when x,y,n are positive integers =&gt; x&lt;=math.******* and y&gt;=math.*******</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1125,7 +1193,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>Common_Factors(a,b) = Factors(a).*****(Factors(b))</t>
+          <t>Common_Factors(a,b) = Factors(a).*****************(Factors(b))</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1153,7 +1221,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) = *****(Common_Factors(a,b))</t>
+          <t>gcf(a,b) = ***(Common_Factors(a,b))</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1181,7 +1249,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Min(Factors(n)) = *****</t>
+          <t>Min(Factors(n)) = *</t>
         </is>
       </c>
       <c r="E25" s="5" t="n">
@@ -1207,7 +1275,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Max(Factors(n)) = *****</t>
+          <t>Max(Factors(n)) = *</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1291,7 +1359,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Min(Common_Factors(a,b)) = *****</t>
+          <t>Min(Common_Factors(a,b)) = *</t>
         </is>
       </c>
       <c r="E29" s="5" t="n">
@@ -1317,7 +1385,7 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>Max(Common_Factors(a,b)) = m*****(a,b)</t>
+          <t>M*******Common_Factors(a,b)) = m*******(a,b)</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
@@ -1345,7 +1413,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) &lt;= *****</t>
+          <t>gcf(a,b) &lt;= **************</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1373,7 +1441,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) ***** Min(a,b)</t>
+          <t>gcf(a,b) ** Min(a,b)</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1401,7 +1469,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) &gt;= *****</t>
+          <t>gcf(a,b) &gt;= *</t>
         </is>
       </c>
       <c r="E33" s="5" t="n">
@@ -1427,7 +1495,7 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) is between ***** and min(a,b)</t>
+          <t>gcf(a,b) is between * and min(a,b)</t>
         </is>
       </c>
       <c r="E34" s="5" t="n">
@@ -1453,7 +1521,7 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) is between 1 and *****</t>
+          <t>gcf(a,b) is between 1 and **************</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
@@ -1481,7 +1549,7 @@
       </c>
       <c r="D36" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) = The biggest square dimension that a r***** of a*b can be divided into</t>
+          <t>gcf(a,b) = The biggest square dimension that a r************** of a*b can be divided into</t>
         </is>
       </c>
       <c r="E36" s="5" t="inlineStr">
@@ -1509,7 +1577,7 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) = The biggest square dimension that a rectangle of ***** can be divided into</t>
+          <t>gcf(a,b) = The biggest square dimension that a rectangle of *** can be divided into</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
@@ -1537,7 +1605,7 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) = The biggest square dimension that a rectangle of a*b can be divided *****</t>
+          <t>gcf(a,b) = The biggest square dimension that a rectangle of a*b can be divided ****</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
@@ -1565,7 +1633,7 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>***** =&gt; a and b are coprime numbers</t>
+          <t>********** =&gt; a and b are coprime numbers</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
@@ -1593,7 +1661,7 @@
       </c>
       <c r="D40" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b)=1 =&gt; a and b are ***** numbers</t>
+          <t>gcf(a,b)=1 =&gt; a and b are ********* numbers</t>
         </is>
       </c>
       <c r="E40" s="5" t="inlineStr">
@@ -1621,7 +1689,7 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>a and b are prime numbers =&gt; gcf(a,b)=*****</t>
+          <t>a and b are prime numbers =&gt; gcf(a,b)=</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
@@ -1647,7 +1715,7 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>Factors(gcf(*****)) = Common_Factors(a,b)</t>
+          <t>Factors(gcf(**)) = Common_Factors(a,b)</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
@@ -1675,7 +1743,7 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
-          <t>Factors(gcf(a,b)) = Common_Factors(*****)</t>
+          <t>Factors(gcf(a,b)) = Common_Factors(**)</t>
         </is>
       </c>
       <c r="E43" s="5" t="inlineStr">
@@ -1703,7 +1771,7 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>b&gt;a =&gt; Common_Factors(a,b) = Common_Factors(*****-*****,b)</t>
+          <t>b**=&gt; Common_Factors(a,b) = Common_Factors(**-*****,b)</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
@@ -1731,7 +1799,7 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>def *****(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn a</t>
+          <t>def ***(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn a</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
@@ -1759,7 +1827,7 @@
       </c>
       <c r="D46" s="5" t="inlineStr">
         <is>
-          <t>def gcf(a,b):\n\twhile *****:\n\t\ta, b = b, a % b\n\treturn a</t>
+          <t>def gcf(a,b):\n\twhile *:\n\t\ta, b = b, a % b\n\treturn a</t>
         </is>
       </c>
       <c r="E46" s="5" t="inlineStr">
@@ -1787,7 +1855,7 @@
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, *****\n\treturn a</t>
+          <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, ***\n\treturn a</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
@@ -1815,7 +1883,7 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn *****</t>
+          <t>def gcf(a,b):\n\twhile b:\n\t\ta, b = b, a % b\n\treturn *</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
@@ -1843,7 +1911,7 @@
       </c>
       <c r="D49" s="5" t="inlineStr">
         <is>
-          <t>Built-In gcf Function: math.*****(a,b)</t>
+          <t>Built-In gcf Function: math.**(a,b)</t>
         </is>
       </c>
       <c r="E49" s="5" t="inlineStr">
